--- a/Sobrero - Proyect.xlsx
+++ b/Sobrero - Proyect.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\my-news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8640C-F080-4BDF-9E23-38D8EBFDD4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A608C658-FBDE-47AA-9B68-C0F739E8A44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="RRHH" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Tareas</t>
   </si>
@@ -188,6 +187,9 @@
   </si>
   <si>
     <t>T. Predecesora</t>
+  </si>
+  <si>
+    <t>Dias p/ Costo</t>
   </si>
 </sst>
 </file>
@@ -312,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -630,12 +632,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,9 +775,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,192 +784,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,83 +838,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,28 +973,173 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1045,7 +1194,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Project!$K$3</c:f>
+              <c:f>Project!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1169,7 +1318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Project!$K$4:$K$33</c:f>
+              <c:f>Project!$L$4:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1277,7 +1426,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Project!$L$3</c:f>
+              <c:f>Project!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1291,11 +1440,733 @@
               <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-699E-4BD7-8407-BC2CBA64AE75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Project!$E$4:$H$33</c:f>
@@ -2228,7 +3099,7 @@
       <xdr:rowOff>54619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -2522,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q84"/>
+  <dimension ref="B2:Y84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2533,1101 +3404,1359 @@
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="19" max="19" width="19.875" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+    <row r="2" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="O3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="2:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
+      <c r="P3" s="48"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="79"/>
+    </row>
+    <row r="4" spans="2:25" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="7">
+      <c r="C4" s="37"/>
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="1">
-        <f>(L4+1)-K4</f>
+        <f>(M4+1)-L4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="8">
-        <f>I4*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="J4" s="1">
+        <f>(M4+1)-L4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <f>J4*($V$6*$X$6)</f>
         <v>8868.4804545454554</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="8">
         <v>44562</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="8">
         <v>44562</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="103"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="5">
+      <c r="P4" s="56"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+    </row>
+    <row r="5" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="29">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="10">
-        <f>(L5+1)-K5</f>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="9">
+        <f>(M5+1)-L5</f>
         <v>2</v>
       </c>
-      <c r="J5" s="2">
-        <f>I5*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J33" si="0">(M5+1)-L5</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <f>I5*($V$6*$X$6)</f>
         <v>17736.960909090911</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>44563</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>44564</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="9">
         <v>1</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="103"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="5">
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="75"/>
+    </row>
+    <row r="6" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="29">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10">
-        <f t="shared" ref="I6:I33" si="0">(L6+1)-K6</f>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="9">
+        <f>(M6+1)-L6</f>
         <v>2</v>
       </c>
-      <c r="J6" s="2">
-        <f>I6*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>17736.960909090911</v>
-      </c>
-      <c r="K6" s="6">
-        <v>44565</v>
-      </c>
-      <c r="L6" s="6">
-        <v>44566</v>
-      </c>
-      <c r="M6" s="10">
-        <v>2</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="103"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J7" s="2">
-        <f>I7*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K6" s="2">
+        <f>I6*($V$6*$X$6)</f>
         <v>17736.960909090911</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L6" s="6">
+        <v>44565</v>
+      </c>
+      <c r="M6" s="6">
+        <v>44566</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2</v>
+      </c>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="21">
+        <v>195106.57</v>
+      </c>
+      <c r="V6" s="24">
+        <f>U6/$X$8/$X$6</f>
+        <v>1108.5600568181819</v>
+      </c>
+      <c r="X6" s="76">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="76"/>
+    </row>
+    <row r="7" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="29">
+        <v>4</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="9">
+        <f>(M7+1)-L7</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <f>I7*($V$6*$X$6)</f>
+        <v>17736.960909090911</v>
+      </c>
+      <c r="L7" s="6">
         <v>44567</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>44568</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="103"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="5">
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="21">
+        <v>182913.57</v>
+      </c>
+      <c r="V7" s="24">
+        <f t="shared" ref="V7:V8" si="1">U7/$X$8/$X$6</f>
+        <v>1039.2816477272727</v>
+      </c>
+      <c r="X7" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="75"/>
+    </row>
+    <row r="8" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="29">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="9">
+        <f>(M8+1)-L8</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J8" s="2">
-        <f>I8*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K8" s="2">
+        <f>I8*($V$6*$X$6)</f>
         <v>8868.4804545454554</v>
-      </c>
-      <c r="K8" s="6">
-        <v>44569</v>
       </c>
       <c r="L8" s="6">
         <v>44569</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="6">
+        <v>44569</v>
+      </c>
+      <c r="N8" s="9">
         <v>4</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="103"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="5">
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="28">
+        <v>158527.57</v>
+      </c>
+      <c r="V8" s="27">
+        <f t="shared" si="1"/>
+        <v>900.72482954545455</v>
+      </c>
+      <c r="X8" s="76">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="76"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="29">
         <v>6</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="9">
+        <f t="shared" ref="I9:J33" si="2">(M9+1)-L9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J9" s="2">
-        <f>I9*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K9" s="2">
+        <f>I9*($V$6*$X$6)</f>
         <v>8868.4804545454554</v>
-      </c>
-      <c r="K9" s="6">
-        <v>44570</v>
       </c>
       <c r="L9" s="6">
         <v>44570</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
+        <v>44570</v>
+      </c>
+      <c r="N9" s="9">
         <v>5</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="71" t="s">
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="122">
-        <f t="shared" si="0"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="112">
         <f>SUM(J4:J9)</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="17">
+        <f>J10*($V$6*$X$6)</f>
         <v>79816.324090909096</v>
       </c>
-      <c r="K10" s="75">
+      <c r="L10" s="18">
         <v>44562</v>
       </c>
-      <c r="L10" s="75">
+      <c r="M10" s="18">
         <v>44570</v>
       </c>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="7">
+      <c r="C11" s="84"/>
+      <c r="D11" s="85">
         <v>7</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="1">
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="87">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" s="8">
-        <f>I11*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>17736.960909090911</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="K11" s="88">
+        <f>I11*($V$8*$X$6)+I11*($V$6*$X$6)</f>
+        <v>32148.558181818182</v>
+      </c>
+      <c r="L11" s="89">
         <v>44571</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="89">
         <v>44572</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="87">
         <v>6</v>
       </c>
-      <c r="N11" s="98" t="s">
+      <c r="O11" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="99"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="P11" s="91"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J12" s="2">
-        <f>I12*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>26605.441363636368</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="K12" s="88">
+        <f>I12*($V$8*$X$6)+I12*($V$6*$X$6)</f>
+        <v>48222.83727272728</v>
+      </c>
+      <c r="L12" s="6">
         <v>44573</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>44575</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="9">
         <v>7</v>
       </c>
-      <c r="N12" s="86"/>
-      <c r="O12" s="87"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J13" s="2">
-        <f>I13*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>17736.960909090911</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="K13" s="88">
+        <f t="shared" ref="K13:K18" si="3">I13*($V$8*$X$6)+I13*($V$6*$X$6)</f>
+        <v>32148.558181818182</v>
+      </c>
+      <c r="L13" s="6">
         <v>44576</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>44577</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="9">
         <v>8</v>
       </c>
-      <c r="N13" s="86"/>
-      <c r="O13" s="87"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10">
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J14" s="2">
-        <f>I14*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>26605.441363636368</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="K14" s="88">
+        <f>I14*($V$8*$X$6)+I14*($V$6*$X$6)</f>
+        <v>48222.83727272728</v>
+      </c>
+      <c r="L14" s="6">
         <v>44578</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>44580</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="9">
         <v>8</v>
       </c>
-      <c r="N14" s="86"/>
-      <c r="O14" s="87"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="10">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="2">
-        <f>I15*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>17736.960909090911</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="K15" s="88">
+        <f t="shared" si="3"/>
+        <v>32148.558181818182</v>
+      </c>
+      <c r="L15" s="6">
         <v>44581</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>44582</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="9">
         <v>9</v>
       </c>
-      <c r="N15" s="86"/>
-      <c r="O15" s="87"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="62"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10">
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="2">
-        <f>I16*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>17736.960909090911</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="K16" s="88">
+        <f t="shared" si="3"/>
+        <v>32148.558181818182</v>
+      </c>
+      <c r="L16" s="6">
         <v>44583</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>44584</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="86"/>
-      <c r="O16" s="87"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="10">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="2">
-        <f>I17*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>8868.4804545454554</v>
-      </c>
-      <c r="K17" s="6">
-        <v>44585</v>
+      <c r="K17" s="88">
+        <f t="shared" si="3"/>
+        <v>16074.279090909091</v>
       </c>
       <c r="L17" s="6">
         <v>44585</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="6">
+        <v>44585</v>
+      </c>
+      <c r="N17" s="9">
         <v>12</v>
       </c>
-      <c r="N17" s="86"/>
-      <c r="O17" s="87"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J18" s="2">
-        <f>I18*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>8868.4804545454554</v>
-      </c>
-      <c r="K18" s="6">
-        <v>44586</v>
+      <c r="K18" s="88">
+        <f t="shared" si="3"/>
+        <v>16074.279090909091</v>
       </c>
       <c r="L18" s="6">
         <v>44586</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="6">
+        <v>44586</v>
+      </c>
+      <c r="N18" s="9">
         <v>13</v>
       </c>
-      <c r="N18" s="86"/>
-      <c r="O18" s="87"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="40" t="s">
+      <c r="O18" s="61"/>
+      <c r="P18" s="62"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43">
-        <f t="shared" si="0"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="116">
         <f>SUM(J11:J18)</f>
-        <v>141895.68727272731</v>
-      </c>
-      <c r="K19" s="45">
+        <v>16</v>
+      </c>
+      <c r="K19" s="131">
+        <f>I19*($V$8*$X$6)+I19*($V$6*$X$6)</f>
+        <v>257188.46545454545</v>
+      </c>
+      <c r="L19" s="95">
         <v>44571</v>
       </c>
-      <c r="L19" s="45">
+      <c r="M19" s="95">
         <v>44586</v>
       </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="110" t="s">
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="97"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="7">
+      <c r="C20" s="64"/>
+      <c r="D20" s="30">
         <v>15</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J20" s="8">
-        <f>I20*(RRHH!$E$7*RRHH!$G$6)</f>
+      <c r="K20" s="7">
+        <f>I20*($V$7*$X$6)</f>
         <v>124713.79772727273</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="8">
         <v>44587</v>
       </c>
-      <c r="L20" s="9">
+      <c r="M20" s="8">
         <v>44601</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>14</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="O20" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="5">
+      <c r="P20" s="56"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="29">
         <v>16</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="9">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J21" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J21" s="2">
-        <f>I21*(RRHH!$E$7*RRHH!$G$6)</f>
+      <c r="K21" s="2">
+        <f>I21*($V$7*$X$6)</f>
         <v>182913.57</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>44602</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>44623</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="9">
         <v>15</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="5">
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="29">
         <v>17</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10">
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J22" s="2">
-        <f>I22*(RRHH!$E$6*RRHH!$G$6)</f>
-        <v>35473.921818181821</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="K22" s="2">
+        <f t="shared" ref="K22:K24" si="4">I22*($V$7*$X$6)</f>
+        <v>33257.012727272726</v>
+      </c>
+      <c r="L22" s="6">
         <v>44624</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <v>44627</v>
       </c>
-      <c r="M22" s="10">
+      <c r="N22" s="9">
         <v>16</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="5">
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="29">
         <v>18</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10">
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J23" s="2">
-        <f>I23*(RRHH!$E$7*RRHH!$G$6)</f>
+      <c r="K23" s="2">
+        <f t="shared" si="4"/>
         <v>83142.531818181815</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>44628</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>44637</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="9">
         <v>16</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="5">
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="29">
         <v>19</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J24" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J24" s="2">
-        <f>I24*(RRHH!$E$7*RRHH!$G$6)</f>
+      <c r="K24" s="2">
+        <f t="shared" si="4"/>
         <v>66514.025454545452</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>44638</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>44645</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="N24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="52" t="s">
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55">
-        <f t="shared" si="0"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="120">
         <f>SUM(J20:J24)</f>
-        <v>492757.8468181818</v>
-      </c>
-      <c r="K25" s="57">
+        <v>59</v>
+      </c>
+      <c r="K25" s="13">
+        <f>I25*($V$6*$X$6)</f>
+        <v>523240.34681818186</v>
+      </c>
+      <c r="L25" s="14">
         <v>44587</v>
       </c>
-      <c r="L25" s="57">
+      <c r="M25" s="14">
         <v>44645</v>
       </c>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="114"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="115">
+      <c r="C26" s="99"/>
+      <c r="D26" s="100">
         <v>20</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="1">
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="87">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J26" s="87">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J26" s="8">
-        <f>I26*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K26" s="88">
+        <f>I26*($V$6*$X$6)</f>
         <v>62079.363181818189</v>
       </c>
-      <c r="K26" s="9">
+      <c r="L26" s="89">
         <v>44646</v>
       </c>
-      <c r="L26" s="9">
+      <c r="M26" s="89">
         <v>44652</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="87">
         <v>19</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="15"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
+      <c r="P26" s="102"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="5">
         <v>21</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J27" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J27" s="2">
-        <f>I27*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K27" s="2">
+        <f>I27*($V$6*$X$6)</f>
         <v>62079.363181818189</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>44646</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>44652</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="9">
         <v>19</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="5">
         <v>22</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J28" s="2">
-        <f>I28*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K28" s="2">
+        <f>I28*($V$6*$X$6)</f>
         <v>8868.4804545454554</v>
-      </c>
-      <c r="K28" s="6">
-        <v>44652</v>
       </c>
       <c r="L28" s="6">
         <v>44652</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="6">
+        <v>44652</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="5">
         <v>23</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10">
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J29" s="2">
-        <f>I29*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K29" s="2">
+        <f>I29*($V$6*$X$6)</f>
         <v>17736.960909090911</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <v>44652</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>44653</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="9">
         <v>22</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="92" t="s">
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="95">
-        <f t="shared" si="0"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J30" s="96">
+      <c r="J30" s="124">
         <f>SUM(J26:J29)</f>
+        <v>17</v>
+      </c>
+      <c r="K30" s="125">
+        <f>J30*($V$6*$X$6)</f>
         <v>150764.16772727275</v>
       </c>
-      <c r="K30" s="97">
+      <c r="L30" s="106">
         <v>44646</v>
       </c>
-      <c r="L30" s="97">
+      <c r="M30" s="106">
         <v>44653</v>
       </c>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="118"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="s">
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="108"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="7">
+      <c r="C31" s="50"/>
+      <c r="D31" s="30">
         <v>24</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J31" s="8">
-        <f>I31*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K31" s="7">
+        <f>I31*($V$6*$X$6)</f>
         <v>17736.960909090911</v>
       </c>
-      <c r="K31" s="9">
+      <c r="L31" s="8">
         <v>44654</v>
       </c>
-      <c r="L31" s="9">
+      <c r="M31" s="8">
         <v>44655</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>23</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="O31" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="15"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="5">
+      <c r="P31" s="56"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="29">
         <v>25</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="10">
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J32" s="2">
-        <f>I32*(RRHH!$E$6*RRHH!$G$6)</f>
+      <c r="K32" s="2">
+        <f>I32*($V$6*$X$6)</f>
         <v>8868.4804545454554</v>
-      </c>
-      <c r="K32" s="6">
-        <v>44656</v>
       </c>
       <c r="L32" s="6">
         <v>44656</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="6">
+        <v>44656</v>
+      </c>
+      <c r="N32" s="9">
         <v>24</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="17"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="66" t="s">
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="122">
-        <f t="shared" si="0"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J33" s="69">
+      <c r="J33" s="129">
         <f>SUM(J31:J32)</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="15">
+        <f>I33*($V$6*$X$6)</f>
         <v>26605.441363636368</v>
       </c>
-      <c r="K33" s="70">
+      <c r="L33" s="16">
         <v>44654</v>
       </c>
-      <c r="L33" s="70">
+      <c r="M33" s="16">
         <v>44656</v>
       </c>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="121"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="11">
-        <f>J10+J19+J25+J30+J33</f>
-        <v>891839.46727272728</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K35" s="3"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="72"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="130">
+        <f>K10+K19+K25+K30+K33</f>
+        <v>1037614.7454545456</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L35" s="3"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="53">
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="O20:P24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="B31:C33"/>
+    <mergeCell ref="O4:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="O11:P18"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B20:C25"/>
+    <mergeCell ref="B26:C30"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="O31:P32"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="O26:P29"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="B11:C19"/>
@@ -3637,170 +4766,16 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E13:H13"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="B31:C33"/>
-    <mergeCell ref="N4:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="N11:O18"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="B20:C25"/>
-    <mergeCell ref="B26:C30"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="N31:O32"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="N26:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="N20:O24"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="J22" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="78">
-        <v>195106.57</v>
-      </c>
-      <c r="E6" s="81">
-        <f>D6/$G$8/$G$6</f>
-        <v>1108.5600568181819</v>
-      </c>
-      <c r="G6" s="20">
-        <v>8</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="78">
-        <v>182913.57</v>
-      </c>
-      <c r="E7" s="81">
-        <f t="shared" ref="E7:E8" si="0">D7/$G$8/$G$6</f>
-        <v>1039.2816477272727</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="85">
-        <v>158527.57</v>
-      </c>
-      <c r="E8" s="84">
-        <f t="shared" si="0"/>
-        <v>900.72482954545455</v>
-      </c>
-      <c r="G8" s="20">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>